--- a/Single-Number.xlsx
+++ b/Single-Number.xlsx
@@ -44,20 +44,20 @@
     <t>Directions:</t>
   </si>
   <si>
-    <t>Fill in 100 numbers or less in the green-tinted rows below. The answer is in the B12 cell.</t>
+    <t>DO NOT TOUCH</t>
   </si>
   <si>
-    <t>2018 Huan Truong</t>
+    <t>https://github.com/htruong/leetcode-excel</t>
   </si>
   <si>
-    <t>DO NOT TOUCH</t>
+    <t>Fill up to 100 numbers in the green-tinted rows below. The answer is in the B12 cell.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +87,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -131,12 +139,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -149,10 +158,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,7 +481,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +500,7 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
@@ -510,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -523,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,7 +1263,10 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>